--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-743-0-Djellza-leg.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-743-0-Djellza-leg.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$54</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Y</t>
   </si>
@@ -69,9 +69,6 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>Sqarim</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>Përdhesa 2</t>
+  </si>
+  <si>
+    <t>Fitore Lipovica</t>
+  </si>
+  <si>
+    <t>Kati 1</t>
+  </si>
+  <si>
+    <t>Gjithej:</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -631,110 +637,125 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="B14:I22"/>
+      <selection activeCell="Q13" sqref="Q13:Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,115 +1414,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1523,16 +1544,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>7</v>
@@ -1552,15 +1573,15 @@
         <v>617.23900000000003</v>
       </c>
       <c r="F15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="33">
+      <c r="I15" s="50">
         <v>80.459999999999994</v>
       </c>
     </row>
@@ -1578,13 +1599,13 @@
         <v>617.13699999999994</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>3</v>
       </c>
@@ -1598,13 +1619,13 @@
         <v>617.13699999999994</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>4</v>
       </c>
@@ -1618,13 +1639,13 @@
         <v>617.60699999999997</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>5</v>
       </c>
@@ -1638,17 +1659,17 @@
         <v>617.10799999999995</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="33">
+        <v>14</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="50">
         <v>31.99</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>10</v>
       </c>
@@ -1662,13 +1683,13 @@
         <v>622.70500000000004</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>302</v>
       </c>
@@ -1682,13 +1703,13 @@
         <v>617.60699999999997</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>303</v>
       </c>
@@ -1702,107 +1723,413 @@
         <v>617.60699999999997</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="G22" s="53"/>
       <c r="H22" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="18">
         <f>SUM(I15:I21)</f>
         <v>112.44999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="F28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="12" t="s">
+      <c r="H28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7511661.5650000004</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4691962.8320000004</v>
+      </c>
+      <c r="E29" s="47">
+        <v>620.12300000000005</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="56">
+        <v>80.459999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="45" t="s">
+      <c r="C30" s="5">
+        <v>7511668.6059999997</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4691961.7359999996</v>
+      </c>
+      <c r="E30" s="48">
+        <v>620.12300000000005</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7511663.0590000004</v>
+      </c>
+      <c r="D31" s="5">
+        <v>4691974.0269999998</v>
+      </c>
+      <c r="E31" s="48">
+        <v>620.12300000000005</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7511669.1579999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4691965.7479999997</v>
+      </c>
+      <c r="E32" s="48">
+        <v>620.12300000000005</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14">
         <v>10</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="41" t="s">
+      <c r="C33" s="15">
+        <v>7511670.0999999996</v>
+      </c>
+      <c r="D33" s="15">
+        <v>4691972.9309999999</v>
+      </c>
+      <c r="E33" s="53">
+        <v>620.12300000000005</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="55">
+        <v>80.459999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
+      <c r="I53" s="25"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51">
-        <v>152</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K30" s="1"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34">
+        <v>168</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:G27"/>
+  <mergeCells count="18">
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
     <mergeCell ref="H15:H18"/>
@@ -1810,6 +2137,17 @@
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="G15:G22"/>
+    <mergeCell ref="J53:K54"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H53:I54"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="I29:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-743-0-Djellza-leg.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-743-0-Djellza-leg.xlsx
@@ -90,13 +90,13 @@
     <t>Përdhesa 2</t>
   </si>
   <si>
-    <t>Fitore Lipovica</t>
-  </si>
-  <si>
     <t>Kati 1</t>
   </si>
   <si>
     <t>Gjithej:</t>
+  </si>
+  <si>
+    <t>Liridon Sejdiu</t>
   </si>
 </sst>
 </file>
@@ -637,6 +637,63 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,63 +746,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,7 +1027,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 0743-5</a:t>
+            <a:t>: 0743-14</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13:Z31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,115 +1414,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1575,13 +1575,13 @@
       <c r="F15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="34">
         <v>80.459999999999994</v>
       </c>
     </row>
@@ -1601,9 +1601,9 @@
       <c r="F16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="51"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
@@ -1621,9 +1621,9 @@
       <c r="F17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="51"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
@@ -1641,9 +1641,9 @@
       <c r="F18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="52"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
@@ -1661,11 +1661,11 @@
       <c r="F19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="47" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="34">
         <v>31.99</v>
       </c>
     </row>
@@ -1685,9 +1685,9 @@
       <c r="F20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="51"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
@@ -1705,9 +1705,9 @@
       <c r="F21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
@@ -1725,7 +1725,7 @@
       <c r="F22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="17" t="s">
         <v>13</v>
       </c>
@@ -1738,51 +1738,51 @@
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
@@ -1820,17 +1820,17 @@
       <c r="D29" s="5">
         <v>4691962.8320000004</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="31">
         <v>620.12300000000005</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>18</v>
+      <c r="F29" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="H29" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="56">
         <v>80.459999999999994</v>
@@ -1846,11 +1846,11 @@
       <c r="D30" s="5">
         <v>4691961.7359999996</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="32">
         <v>620.12300000000005</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
     </row>
@@ -1864,11 +1864,11 @@
       <c r="D31" s="5">
         <v>4691974.0269999998</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="32">
         <v>620.12300000000005</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
     </row>
@@ -1882,11 +1882,11 @@
       <c r="D32" s="5">
         <v>4691965.7479999997</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="32">
         <v>620.12300000000005</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="58"/>
       <c r="I32" s="58"/>
     </row>
@@ -1900,15 +1900,15 @@
       <c r="D33" s="15">
         <v>4691972.9309999999</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="37">
         <v>620.12300000000005</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="55">
+        <v>18</v>
+      </c>
+      <c r="I33" s="20">
         <v>80.459999999999994</v>
       </c>
     </row>
@@ -1916,8 +1916,8 @@
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -1926,151 +1926,151 @@
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D50" s="6"/>
@@ -2090,34 +2090,34 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="24" t="s">
+      <c r="E53" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="39"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34">
-        <v>168</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="22"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53">
+        <v>140</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K55" s="1"/>
@@ -2130,13 +2130,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="G15:G22"/>
     <mergeCell ref="J53:K54"/>
     <mergeCell ref="A3:K6"/>
     <mergeCell ref="H53:I54"/>
@@ -2148,6 +2141,13 @@
     <mergeCell ref="G29:G33"/>
     <mergeCell ref="H29:H32"/>
     <mergeCell ref="I29:I32"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="G15:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
